--- a/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="112">
   <si>
     <t>3주차</t>
   </si>
@@ -464,6 +464,16 @@
   </si>
   <si>
     <t>도깨비 PJ 프로토타이핑 / CGV PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ 상세코딩 / CGV PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/22(금)
+2-4교시
+멘토링1차</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -785,7 +795,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -888,9 +898,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -930,9 +937,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -955,6 +959,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1269,8 +1276,8 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1291,41 +1298,41 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="56"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="54"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1449,7 +1456,7 @@
         <f>DAYS360(C8,E8)+1</f>
         <v>2</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="44" t="s">
         <v>36</v>
       </c>
       <c r="H8" s="24"/>
@@ -1461,197 +1468,199 @@
       <c r="L8" s="28"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="38">
         <v>45579</v>
       </c>
-      <c r="D9" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="39">
+      <c r="D9" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="38">
         <v>45583</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="40">
         <f t="shared" ref="F9:F31" si="0">DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="42"/>
-      <c r="I9" s="40" t="s">
+      <c r="H9" s="41"/>
+      <c r="I9" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="43" t="s">
+      <c r="K9" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="L9" s="44"/>
+      <c r="L9" s="43"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="38">
         <v>45586</v>
       </c>
-      <c r="D10" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="39">
+      <c r="D10" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="38">
         <v>45590</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="42"/>
-      <c r="I10" s="40" t="s">
+      <c r="H10" s="41"/>
+      <c r="I10" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="J10" s="40" t="s">
+      <c r="J10" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="43" t="s">
+      <c r="K10" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="L10" s="44"/>
+      <c r="L10" s="43"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="38">
         <v>45593</v>
       </c>
-      <c r="D11" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="39">
+      <c r="D11" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="38">
         <v>45597</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="40">
         <f>DAYS360(C11,E11)+2</f>
         <v>5</v>
       </c>
-      <c r="G11" s="45" t="s">
+      <c r="G11" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="49"/>
-      <c r="I11" s="40" t="s">
+      <c r="H11" s="47"/>
+      <c r="I11" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="J11" s="40" t="s">
+      <c r="J11" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="L11" s="44"/>
+      <c r="L11" s="43"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="38">
         <v>45600</v>
       </c>
-      <c r="D12" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="39">
+      <c r="D12" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="38">
         <v>45604</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="42"/>
-      <c r="I12" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="J12" s="43" t="s">
+      <c r="H12" s="41"/>
+      <c r="I12" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="K12" s="43" t="s">
+      <c r="K12" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="L12" s="44"/>
+      <c r="L12" s="43"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="38">
         <v>45607</v>
       </c>
-      <c r="D13" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="30">
+      <c r="D13" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="38">
         <v>45611</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="48"/>
-      <c r="I13" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="J13" s="33" t="s">
+      <c r="H13" s="41"/>
+      <c r="I13" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="K13" s="33" t="s">
+      <c r="K13" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="34"/>
+      <c r="L13" s="43"/>
     </row>
     <row r="14" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="30">
         <v>45614</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="11">
+      <c r="D14" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="30">
         <v>45618</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="32">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="47" t="s">
+      <c r="G14" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="12" t="s">
+      <c r="H14" s="55"/>
+      <c r="I14" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="16"/>
+      <c r="L14" s="34" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="15" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B15" s="10" t="s">
@@ -1670,7 +1679,7 @@
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="46" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="14"/>
@@ -1702,7 +1711,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="47" t="s">
+      <c r="G16" s="46" t="s">
         <v>38</v>
       </c>
       <c r="H16" s="14"/>
@@ -1715,7 +1724,7 @@
       <c r="K16" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="L16" s="35" t="s">
+      <c r="L16" s="34" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1736,7 +1745,7 @@
         <f>DAYS360(C17,E17)+1</f>
         <v>5</v>
       </c>
-      <c r="G17" s="47" t="s">
+      <c r="G17" s="46" t="s">
         <v>38</v>
       </c>
       <c r="H17" s="14"/>
@@ -1768,7 +1777,7 @@
         <f>DAYS360(C18,E18)+1</f>
         <v>5</v>
       </c>
-      <c r="G18" s="47" t="s">
+      <c r="G18" s="46" t="s">
         <v>38</v>
       </c>
       <c r="H18" s="14"/>
@@ -1800,10 +1809,10 @@
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="47" t="s">
+      <c r="G19" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="35" t="s">
         <v>61</v>
       </c>
       <c r="I19" s="15" t="s">
@@ -1834,7 +1843,7 @@
         <f>DAYS360(C20,E20)+1</f>
         <v>4</v>
       </c>
-      <c r="G20" s="47" t="s">
+      <c r="G20" s="46" t="s">
         <v>39</v>
       </c>
       <c r="H20" s="14"/>
@@ -1866,7 +1875,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="47" t="s">
+      <c r="G21" s="46" t="s">
         <v>39</v>
       </c>
       <c r="H21" s="14"/>
@@ -1898,7 +1907,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="47" t="s">
+      <c r="G22" s="46" t="s">
         <v>65</v>
       </c>
       <c r="H22" s="14"/>
@@ -1930,7 +1939,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="46" t="s">
         <v>66</v>
       </c>
       <c r="H23" s="14"/>
@@ -1962,7 +1971,7 @@
         <f>DAYS360(C24,E24)-2</f>
         <v>2</v>
       </c>
-      <c r="G24" s="47" t="s">
+      <c r="G24" s="46" t="s">
         <v>66</v>
       </c>
       <c r="H24" s="17"/>
@@ -1994,7 +2003,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="47" t="s">
+      <c r="G25" s="46" t="s">
         <v>66</v>
       </c>
       <c r="H25" s="14"/>
@@ -2026,10 +2035,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="47" t="s">
+      <c r="G26" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="H26" s="36" t="s">
+      <c r="H26" s="35" t="s">
         <v>69</v>
       </c>
       <c r="I26" s="14" t="s">
@@ -2060,7 +2069,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="46" t="s">
         <v>68</v>
       </c>
       <c r="H27" s="17"/>
@@ -2092,7 +2101,7 @@
         <f>DAYS360(C28,E28)+1</f>
         <v>5</v>
       </c>
-      <c r="G28" s="47" t="s">
+      <c r="G28" s="46" t="s">
         <v>70</v>
       </c>
       <c r="H28" s="19"/>
@@ -2124,7 +2133,7 @@
         <f>DAYS360(C29,E29)+1</f>
         <v>4</v>
       </c>
-      <c r="G29" s="47" t="s">
+      <c r="G29" s="46" t="s">
         <v>71</v>
       </c>
       <c r="H29" s="19"/>
@@ -2156,7 +2165,7 @@
         <f>DAYS360(C30,E30)+1</f>
         <v>5</v>
       </c>
-      <c r="G30" s="47" t="s">
+      <c r="G30" s="46" t="s">
         <v>71</v>
       </c>
       <c r="H30" s="17"/>
@@ -2188,7 +2197,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G31" s="47" t="s">
+      <c r="G31" s="46" t="s">
         <v>72</v>
       </c>
       <c r="H31" s="19"/>
@@ -2220,10 +2229,10 @@
         <f>DAYS360(C32,E32)+1</f>
         <v>5</v>
       </c>
-      <c r="G32" s="47" t="s">
+      <c r="G32" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="H32" s="36" t="s">
+      <c r="H32" s="35" t="s">
         <v>74</v>
       </c>
       <c r="I32" s="14" t="s">
@@ -2254,7 +2263,7 @@
         <f>DAYS360(C33,E33)+1</f>
         <v>5</v>
       </c>
-      <c r="G33" s="47" t="s">
+      <c r="G33" s="46" t="s">
         <v>73</v>
       </c>
       <c r="H33" s="19"/>
@@ -2267,7 +2276,7 @@
       <c r="K33" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="L33" s="37" t="s">
+      <c r="L33" s="36" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2280,32 +2289,32 @@
       </c>
     </row>
     <row r="35" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
     </row>
     <row r="36" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
     </row>
     <row r="47" spans="2:12">
       <c r="I47" s="2" t="s">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="111">
   <si>
     <t>3주차</t>
   </si>
@@ -237,11 +237,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>12/6(금)5-8
-취업세미나</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>1차 PJ 작품발표회
 12/26(목) 5-8</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -411,11 +406,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1차 상세코딩
-2차 팀PJ 주제선정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>리액트 기본</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -433,11 +423,6 @@
   </si>
   <si>
     <t>도깨비 PJ 와이어프레이밍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비 PJ 상세코딩
-보그 PJ 분석/설계</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -474,6 +459,15 @@
   <si>
     <t>HTML5 + CSS3 응용연습
 Javascript 기본 / 제이쿼리 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/28(금)5-8
+취업세미나</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ 상세코딩</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -940,6 +934,15 @@
     <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -960,15 +963,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1282,8 +1276,8 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1304,41 +1298,41 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="54"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="57"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1495,13 +1489,13 @@
       </c>
       <c r="H9" s="41"/>
       <c r="I9" s="39" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J9" s="39" t="s">
         <v>44</v>
       </c>
       <c r="K9" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L9" s="43"/>
     </row>
@@ -1527,13 +1521,13 @@
       </c>
       <c r="H10" s="41"/>
       <c r="I10" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J10" s="39" t="s">
         <v>45</v>
       </c>
       <c r="K10" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L10" s="43"/>
     </row>
@@ -1555,17 +1549,17 @@
         <v>5</v>
       </c>
       <c r="G11" s="44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11" s="47"/>
       <c r="I11" s="39" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>46</v>
       </c>
       <c r="K11" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L11" s="43"/>
     </row>
@@ -1591,13 +1585,13 @@
       </c>
       <c r="H12" s="41"/>
       <c r="I12" s="39" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J12" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K12" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L12" s="43"/>
     </row>
@@ -1623,10 +1617,10 @@
       </c>
       <c r="H13" s="41"/>
       <c r="I13" s="39" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J13" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K13" s="42" t="s">
         <v>47</v>
@@ -1655,84 +1649,82 @@
       </c>
       <c r="H14" s="47"/>
       <c r="I14" s="39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J14" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K14" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="57" t="s">
-        <v>110</v>
+      <c r="L14" s="50" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="38">
         <v>45621</v>
       </c>
-      <c r="D15" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="30">
+      <c r="D15" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="38">
         <v>45625</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="40">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="55"/>
-      <c r="I15" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="J15" s="31" t="s">
+      <c r="G15" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="41"/>
+      <c r="I15" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="L15" s="56"/>
+      <c r="K15" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="L15" s="43"/>
     </row>
     <row r="16" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="30">
         <v>45628</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="11">
+      <c r="D16" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="30">
         <v>45632</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="46" t="s">
+      <c r="G16" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="34" t="s">
-        <v>60</v>
-      </c>
+      <c r="H16" s="48"/>
+      <c r="I16" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="49"/>
     </row>
     <row r="17" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B17" s="10" t="s">
@@ -1756,13 +1748,13 @@
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L17" s="16"/>
     </row>
@@ -1788,13 +1780,13 @@
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L18" s="16"/>
     </row>
@@ -1816,19 +1808,19 @@
         <v>4</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L19" s="16"/>
     </row>
@@ -1854,13 +1846,13 @@
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L20" s="16"/>
     </row>
@@ -1886,13 +1878,13 @@
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L21" s="16"/>
     </row>
@@ -1914,17 +1906,17 @@
         <v>5</v>
       </c>
       <c r="G22" s="46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L22" s="16"/>
     </row>
@@ -1946,17 +1938,17 @@
         <v>5</v>
       </c>
       <c r="G23" s="46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L23" s="16"/>
     </row>
@@ -1978,17 +1970,17 @@
         <v>2</v>
       </c>
       <c r="G24" s="46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L24" s="16"/>
     </row>
@@ -2010,17 +2002,17 @@
         <v>5</v>
       </c>
       <c r="G25" s="46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L25" s="16"/>
     </row>
@@ -2042,19 +2034,19 @@
         <v>5</v>
       </c>
       <c r="G26" s="46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H26" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I26" s="14" t="s">
         <v>43</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L26" s="16"/>
     </row>
@@ -2076,17 +2068,17 @@
         <v>5</v>
       </c>
       <c r="G27" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H27" s="17"/>
       <c r="I27" s="14" t="s">
         <v>43</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L27" s="18"/>
     </row>
@@ -2108,7 +2100,7 @@
         <v>5</v>
       </c>
       <c r="G28" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="14" t="s">
@@ -2118,9 +2110,11 @@
         <v>50</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="L28" s="18"/>
+        <v>96</v>
+      </c>
+      <c r="L28" s="34" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="29" spans="2:12" ht="56.45" customHeight="1">
       <c r="B29" s="10" t="s">
@@ -2140,7 +2134,7 @@
         <v>4</v>
       </c>
       <c r="G29" s="46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="14" t="s">
@@ -2150,7 +2144,7 @@
         <v>50</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L29" s="20"/>
     </row>
@@ -2172,7 +2166,7 @@
         <v>5</v>
       </c>
       <c r="G30" s="46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H30" s="17"/>
       <c r="I30" s="14" t="s">
@@ -2182,7 +2176,7 @@
         <v>50</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L30" s="20"/>
     </row>
@@ -2204,7 +2198,7 @@
         <v>5</v>
       </c>
       <c r="G31" s="46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="14" t="s">
@@ -2214,7 +2208,7 @@
         <v>50</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L31" s="20"/>
     </row>
@@ -2236,10 +2230,10 @@
         <v>5</v>
       </c>
       <c r="G32" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" s="35" t="s">
         <v>73</v>
-      </c>
-      <c r="H32" s="35" t="s">
-        <v>74</v>
       </c>
       <c r="I32" s="14" t="s">
         <v>51</v>
@@ -2248,7 +2242,7 @@
         <v>50</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L32" s="20"/>
     </row>
@@ -2270,7 +2264,7 @@
         <v>5</v>
       </c>
       <c r="G33" s="46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="14" t="s">
@@ -2280,10 +2274,10 @@
         <v>50</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L33" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="2:12" ht="47.25" customHeight="1" thickBot="1">
@@ -2295,32 +2289,32 @@
       </c>
     </row>
     <row r="35" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
     </row>
     <row r="36" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
     </row>
     <row r="47" spans="2:12">
       <c r="I47" s="2" t="s">
